--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ladik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46906F3F-D40F-44C4-BFA6-0B7D0E0CACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2CFFC4-4CFB-49BA-AC5E-46838D2B1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Ризики" sheetId="1" r:id="rId1"/>
     <sheet name="Люди" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -153,13 +153,48 @@
   </si>
   <si>
     <t>Не вдалося отримати дані про місцезнаходження</t>
+  </si>
+  <si>
+    <t>Несумісність додатка зі старими версіями браузера</t>
+  </si>
+  <si>
+    <t>Частина користувачів не зможе скористатися веб клієнтом</t>
+  </si>
+  <si>
+    <t>Використання технологій з зворотньою сумісністю</t>
+  </si>
+  <si>
+    <t>Запропонувати користувачам текстовий маршрут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скарги користувачів на проблеми із запуском додатка
+</t>
+  </si>
+  <si>
+    <t>Галунько Б.В.</t>
+  </si>
+  <si>
+    <t>Неправильне визначення аудиторії або локації</t>
+  </si>
+  <si>
+    <t>Користувачі можуть потрапити в неправильне місце або витратити зайвий час на пошук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Використання чіткої нумерації аудиторій, тестування навігації перед запуском
+</t>
+  </si>
+  <si>
+    <t>Швидке виправлення карти та маршрутів, рекомендації альтернативних шляхів</t>
+  </si>
+  <si>
+    <t>Користувачі масово повідомляють про плутанину в локаціях</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -205,6 +240,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -232,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,6 +295,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,8 +518,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -690,47 +733,71 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1015,18 +1082,12 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Оберіть зі спику члена команди" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Люди!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Оберіть зі спику члена команди" xr:uid="{32702C1E-7F76-418B-A9A4-6031E451FC25}">
-          <x14:formula1>
-            <xm:f>Люди!$A$1:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2</xm:sqref>
+          <xm:sqref>J2:J21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1039,10 +1100,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1146,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ladik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2CFFC4-4CFB-49BA-AC5E-46838D2B1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1583921F-54C2-421C-BE90-61F67FCAC7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,28 @@
     <sheet name="Ризики" sheetId="1" r:id="rId1"/>
     <sheet name="Люди" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -55,146 +71,231 @@
     <t>Відповідальний</t>
   </si>
   <si>
+    <t>Ризик перевантаження сервера за великої кількості користувачів</t>
+  </si>
+  <si>
+    <t>Збої в роботі веб клієнта</t>
+  </si>
+  <si>
+    <t>Провести попереднє навантажувальне тестування та обмежити максимальну кількість користувачів</t>
+  </si>
+  <si>
+    <t>Перезапуск серверу</t>
+  </si>
+  <si>
+    <t>Велика кількість відвідувачів Дня відкритих дверей</t>
+  </si>
+  <si>
+    <t>Кабановський І.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слабкий GPS сигнал в будівлі </t>
+  </si>
+  <si>
+    <t>Некоректна робота програми</t>
+  </si>
+  <si>
+    <t>Гарно спланувати ключові точки маршруту, додати QR-мітки з геопозицією на них</t>
+  </si>
+  <si>
+    <t>Попросити волонтерів що допомагають на заході провести гостей, які мають проблеми з використанням застосунку</t>
+  </si>
+  <si>
+    <t>Збої в роботі програми</t>
+  </si>
+  <si>
+    <t>Ладіков М.Ю.</t>
+  </si>
+  <si>
+    <t>Затримки в реалізації проекту</t>
+  </si>
+  <si>
+    <t>Незадоволеність замовника, погані оцінки за практику</t>
+  </si>
+  <si>
+    <t>Чіткий розподіл ролей і задач, створення календарного плану</t>
+  </si>
+  <si>
+    <t>Перерозподіл задач у випадку проблем, взаємодопомога</t>
+  </si>
+  <si>
+    <t>Просрочка здачі завдань</t>
+  </si>
+  <si>
+    <t>Проблеми з відображенням на різних пристроях</t>
+  </si>
+  <si>
+    <t>Частина інтерфейсу прихована, кнопки не натискаються, застосунком незручно користуватися</t>
+  </si>
+  <si>
+    <t>Перед запуском провести тестування на різних пристроях і браузерах</t>
+  </si>
+  <si>
+    <t>Передбачити можливість прокручування або зміни масштабу вручну</t>
+  </si>
+  <si>
+    <t>Відгуки користувачів про некоректне відображення</t>
+  </si>
+  <si>
     <t>Антонов С.І.</t>
   </si>
   <si>
+    <t>Користувач відключив GPS або не дав дозвіл на використання геолокації</t>
+  </si>
+  <si>
+    <t>Застосунок не може визначити місцеперебування користувача</t>
+  </si>
+  <si>
+    <t>Створити пошагову інструкцію з виправлення проблем, а також текстовий варіант вказівок для маршруту</t>
+  </si>
+  <si>
+    <t>Якщо не вдається отримати дані про місцезнаходження, висвітити відповідне повідомлення і запропонувати інструкцію або текстовий режим</t>
+  </si>
+  <si>
+    <t>Не вдалося отримати дані про місцезнаходження</t>
+  </si>
+  <si>
+    <t>Калінічук С.Є.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Некоректна робота GPS у місті
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неточні маршрути
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оптимізація алгоритму визначення місцезнаходження
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Використання додаткових джерел геолокації (Wi-Fi, мобільні вежі)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Висотні будівлі блокують сигнал
+</t>
+  </si>
+  <si>
     <t>Гапонов Н.О</t>
   </si>
   <si>
-    <t>Дольнік Д.О.</t>
-  </si>
-  <si>
-    <t>Ігнатишин С.Л.</t>
-  </si>
-  <si>
-    <t>Калінічук С.Є.</t>
-  </si>
-  <si>
-    <t>Ладіков М.Ю.</t>
+    <t xml:space="preserve">Високе споживання батареї додатком
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відмова користувачів від додатка
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оптимізація споживання енергії
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Використання адаптивного режиму оновлення GPS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неефективне використання ресурсів пристрою
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Збої у відображенні інтерфейсу на iOS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Збої у роботі додатка
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестування на всіх основних платформах
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розробка універсального UI-коду
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Некоректна адаптація під різні операційні системи
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відмова користувачів через складний інтерфейс
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативні відгуки користувачів
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проведення UX-досліджень
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрощення дизайну та навігації
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надмірна кількість елементів на екрані
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Довгий час завантаження додатка
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Низька лояльність користувачів
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оптимізація запитів
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Використання кешування даних
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Велика кількість непотрібних запитів до сервера
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відмова користувачів від оновлення додатка
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Використання застарілих версій
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комунікація переваг оновлення
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Впровадження плавного переходу між версіями
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страх втратити дані або звичний інтерфейс
+</t>
   </si>
   <si>
     <t xml:space="preserve">
 Перш ніж заповнювати цю таблицю замініть прізвища на листі "Люди" аби мати змогу обирати їх у графі "Відповідальний"!</t>
   </si>
   <si>
-    <t>Ризик перевантаження сервера за великої кількості користувачів</t>
-  </si>
-  <si>
-    <t>Збої в роботі веб клієнта</t>
-  </si>
-  <si>
-    <t>Провести попереднє навантажувальне тестування та обмежити максимальну кількість користувачів</t>
-  </si>
-  <si>
-    <t>Перезапуск серверу</t>
-  </si>
-  <si>
-    <t>Велика кількість відвідувачів Дня відкритих дверей</t>
-  </si>
-  <si>
-    <t>Кабановський І.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Слабкий GPS сигнал в будівлі </t>
-  </si>
-  <si>
-    <t>Некоректна робота програми</t>
-  </si>
-  <si>
-    <t>Гарно спланувати ключові точки маршруту, додати QR-мітки з геопозицією на них</t>
-  </si>
-  <si>
-    <t>Попросити волонтерів що допомагають на заході провести гостей, які мають проблеми з використанням застосунку</t>
-  </si>
-  <si>
-    <t>Збої в роботі програми</t>
-  </si>
-  <si>
-    <t>Затримки в реалізації проекту</t>
-  </si>
-  <si>
-    <t>Незадоволеність замовника, погані оцінки за практику</t>
-  </si>
-  <si>
-    <t>Чіткий розподіл ролей і задач, створення календарного плану</t>
-  </si>
-  <si>
-    <t>Перерозподіл задач у випадку проблем, взаємодопомога</t>
-  </si>
-  <si>
-    <t>Просрочка здачі завдань</t>
-  </si>
-  <si>
-    <t>Проблеми з відображенням на різних пристроях</t>
-  </si>
-  <si>
-    <t>Частина інтерфейсу прихована, кнопки не натискаються, застосунком незручно користуватися</t>
-  </si>
-  <si>
-    <t>Перед запуском провести тестування на різних пристроях і браузерах</t>
-  </si>
-  <si>
-    <t>Передбачити можливість прокручування або зміни масштабу вручну</t>
-  </si>
-  <si>
-    <t>Відгуки користувачів про некоректне відображення</t>
-  </si>
-  <si>
-    <t>Користувач відключив GPS або не дав дозвіл на використання геолокації</t>
-  </si>
-  <si>
-    <t>Застосунок не може визначити місцеперебування користувача</t>
-  </si>
-  <si>
-    <t>Створити пошагову інструкцію з виправлення проблем, а також текстовий варіант вказівок для маршруту</t>
-  </si>
-  <si>
-    <t>Якщо не вдається отримати дані про місцезнаходження, висвітити відповідне повідомлення і запропонувати інструкцію або текстовий режим</t>
-  </si>
-  <si>
-    <t>Не вдалося отримати дані про місцезнаходження</t>
-  </si>
-  <si>
-    <t>Несумісність додатка зі старими версіями браузера</t>
-  </si>
-  <si>
-    <t>Частина користувачів не зможе скористатися веб клієнтом</t>
-  </si>
-  <si>
-    <t>Використання технологій з зворотньою сумісністю</t>
-  </si>
-  <si>
-    <t>Запропонувати користувачам текстовий маршрут</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скарги користувачів на проблеми із запуском додатка
-</t>
-  </si>
-  <si>
-    <t>Галунько Б.В.</t>
-  </si>
-  <si>
-    <t>Неправильне визначення аудиторії або локації</t>
-  </si>
-  <si>
-    <t>Користувачі можуть потрапити в неправильне місце або витратити зайвий час на пошук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Використання чіткої нумерації аудиторій, тестування навігації перед запуском
-</t>
-  </si>
-  <si>
-    <t>Швидке виправлення карти та маршрутів, рекомендації альтернативних шляхів</t>
-  </si>
-  <si>
-    <t>Користувачі масово повідомляють про плутанину в локаціях</t>
+    <t>Дольнік Д.О.</t>
+  </si>
+  <si>
+    <t>Ігнатишин С.Л.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -240,11 +341,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -295,9 +391,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,25 +611,25 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="10" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="42" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,15 +661,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="62.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7">
         <v>0.65</v>
@@ -589,27 +682,27 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="99.95">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7">
         <v>0.9</v>
@@ -622,27 +715,27 @@
         <v>2.7</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="37.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
         <v>0.3</v>
@@ -655,27 +748,27 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
         <v>0.7</v>
@@ -688,27 +781,27 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="99.95">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
         <v>0.75</v>
@@ -721,90 +814,94 @@
         <v>2.25</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="58.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <f>D7*E7</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="58.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="58.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="7">
         <v>0</v>
       </c>
@@ -815,75 +912,119 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="58.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="58.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="46.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+        <v>1.25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.6">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -904,7 +1045,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="12.6">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -925,7 +1066,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="12.6">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -946,7 +1087,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="12.6">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -967,7 +1108,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="12.6">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -988,7 +1129,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="12.6">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1009,7 +1150,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="12.6">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1030,7 +1171,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="12.6">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1051,7 +1192,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="12.6">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1072,9 +1213,9 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1100,55 +1241,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
